--- a/Documenti/Scheduling/GreenLeaf Schedule.xlsx
+++ b/Documenti/Scheduling/GreenLeaf Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Desktop\Green-Leaf\Documenti\Scheduling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\Green-Leaf\Documenti\Scheduling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A16338-B485-4C09-8C4F-CFF5142E5B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11496D3D-BCEA-4CFF-8560-334877340433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabella_Attività" sheetId="1" r:id="rId1"/>
@@ -491,7 +491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -516,6 +516,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -858,22 +861,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33:F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="36.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" customWidth="1"/>
+    <col min="3" max="3" width="10.1328125" customWidth="1"/>
+    <col min="4" max="4" width="11.19921875" customWidth="1"/>
+    <col min="5" max="5" width="19.46484375" customWidth="1"/>
+    <col min="6" max="6" width="19.53125" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -896,7 +899,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -917,7 +920,7 @@
       </c>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -938,7 +941,7 @@
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
@@ -959,7 +962,7 @@
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -980,7 +983,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -1001,7 +1004,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1022,7 +1025,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
@@ -1043,7 +1046,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>33</v>
       </c>
@@ -1066,7 +1069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
@@ -1087,7 +1090,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
@@ -1108,7 +1111,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>42</v>
       </c>
@@ -1129,7 +1132,7 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>45</v>
       </c>
@@ -1150,7 +1153,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>47</v>
       </c>
@@ -1171,7 +1174,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
         <v>50</v>
       </c>
@@ -1194,7 +1197,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>54</v>
       </c>
@@ -1215,7 +1218,7 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>57</v>
       </c>
@@ -1236,7 +1239,7 @@
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>59</v>
       </c>
@@ -1257,7 +1260,7 @@
       </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>61</v>
       </c>
@@ -1278,7 +1281,7 @@
       </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>64</v>
       </c>
@@ -1299,7 +1302,7 @@
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>67</v>
       </c>
@@ -1320,7 +1323,7 @@
       </c>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
         <v>69</v>
       </c>
@@ -1343,7 +1346,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>72</v>
       </c>
@@ -1364,7 +1367,7 @@
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>74</v>
       </c>
@@ -1385,7 +1388,7 @@
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="9" t="s">
         <v>77</v>
       </c>
@@ -1408,7 +1411,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
         <v>82</v>
       </c>
@@ -1431,7 +1434,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>86</v>
       </c>
@@ -1452,7 +1455,7 @@
       </c>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>89</v>
       </c>
@@ -1473,7 +1476,7 @@
       </c>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>91</v>
       </c>
@@ -1494,7 +1497,7 @@
       </c>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
         <v>93</v>
       </c>
@@ -1515,7 +1518,7 @@
       </c>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>96</v>
       </c>
@@ -1536,7 +1539,7 @@
       </c>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>98</v>
       </c>
@@ -1557,7 +1560,7 @@
       </c>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
         <v>101</v>
       </c>
@@ -1574,13 +1577,13 @@
         <v>44928</v>
       </c>
       <c r="F33" s="7">
-        <v>44949</v>
+        <v>44957</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
         <v>106</v>
       </c>
@@ -1596,12 +1599,12 @@
       <c r="E34" s="4">
         <v>44928</v>
       </c>
-      <c r="F34" s="4">
-        <v>44949</v>
+      <c r="F34" s="12">
+        <v>44957</v>
       </c>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>109</v>
       </c>
@@ -1617,12 +1620,12 @@
       <c r="E35" s="4">
         <v>44928</v>
       </c>
-      <c r="F35" s="4">
-        <v>44949</v>
+      <c r="F35" s="12">
+        <v>44957</v>
       </c>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>111</v>
       </c>
@@ -1638,12 +1641,12 @@
       <c r="E36" s="4">
         <v>44928</v>
       </c>
-      <c r="F36" s="4">
-        <v>44949</v>
+      <c r="F36" s="12">
+        <v>44957</v>
       </c>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
         <v>114</v>
       </c>
@@ -1657,16 +1660,16 @@
         <v>22</v>
       </c>
       <c r="E37" s="7">
-        <v>44950</v>
+        <v>44958</v>
       </c>
       <c r="F37" s="7">
-        <v>44951</v>
+        <v>44962</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>117</v>
       </c>
@@ -1679,15 +1682,15 @@
       <c r="D38" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="4">
-        <v>44950</v>
-      </c>
-      <c r="F38" s="4">
-        <v>44951</v>
+      <c r="E38" s="12">
+        <v>44958</v>
+      </c>
+      <c r="F38" s="12">
+        <v>44962</v>
       </c>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>119</v>
       </c>
@@ -1700,15 +1703,15 @@
       <c r="D39" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E39" s="4">
-        <v>44950</v>
-      </c>
-      <c r="F39" s="4">
-        <v>44951</v>
+      <c r="E39" s="12">
+        <v>44958</v>
+      </c>
+      <c r="F39" s="12">
+        <v>44962</v>
       </c>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>121</v>
       </c>
@@ -1721,15 +1724,15 @@
       <c r="D40" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E40" s="4">
-        <v>44950</v>
-      </c>
-      <c r="F40" s="4">
-        <v>44951</v>
+      <c r="E40" s="12">
+        <v>44958</v>
+      </c>
+      <c r="F40" s="12">
+        <v>44962</v>
       </c>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
         <v>123</v>
       </c>
@@ -1743,14 +1746,14 @@
         <v>49</v>
       </c>
       <c r="E41" s="7">
-        <v>44952</v>
+        <v>44963</v>
       </c>
       <c r="F41" s="7">
-        <v>44952</v>
+        <v>44966</v>
       </c>
       <c r="G41" s="6"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
         <v>125</v>
       </c>
@@ -1763,15 +1766,15 @@
       <c r="D42" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E42" s="4">
-        <v>44952</v>
-      </c>
-      <c r="F42" s="4">
-        <v>44952</v>
+      <c r="E42" s="12">
+        <v>44963</v>
+      </c>
+      <c r="F42" s="12">
+        <v>44966</v>
       </c>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
         <v>128</v>
       </c>
@@ -1784,11 +1787,11 @@
       <c r="D43" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E43" s="4">
-        <v>44952</v>
-      </c>
-      <c r="F43" s="4">
-        <v>44952</v>
+      <c r="E43" s="12">
+        <v>44963</v>
+      </c>
+      <c r="F43" s="12">
+        <v>44966</v>
       </c>
       <c r="G43" s="1"/>
     </row>
